--- a/05. 2024STB_survey.xlsx
+++ b/05. 2024STB_survey.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weini\Documents\2\2024STB_yeshangrong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5933FCBB-7826-4BA5-ABD4-23FA06B32B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32F1446-7564-481D-BCAC-E860196ABAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="29">
   <si>
     <t>Gender</t>
   </si>
@@ -59,13 +73,61 @@
   </si>
   <si>
     <t>GN</t>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>标准误差</t>
+  </si>
+  <si>
+    <t>中位数</t>
+  </si>
+  <si>
+    <t>众数</t>
+  </si>
+  <si>
+    <t>标准差</t>
+  </si>
+  <si>
+    <t>方差</t>
+  </si>
+  <si>
+    <t>峰度</t>
+  </si>
+  <si>
+    <t>偏度</t>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>最小值</t>
+  </si>
+  <si>
+    <t>最大值</t>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>观测数</t>
+  </si>
+  <si>
+    <t>置信度(95.0%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -114,6 +176,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,18 +200,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -358,15 +454,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F39F6F5-7EA5-4F8B-878F-1CB67BAE7499}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6">
+        <v>22.852941176470587</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3.2352941176470589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.26411103692167798</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.1466125134757803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.5400187511880152</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.85489051325963328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2.3716577540106942</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.73083778966131929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.28414757063382767</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-1.4697573448983898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.79017398321079702</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-0.48786735174009432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6">
+        <v>777</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.53733794484236075</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.2982854014639722</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
